--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N2">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O2">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P2">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q2">
-        <v>3050.52269724829</v>
+        <v>250.558516454224</v>
       </c>
       <c r="R2">
-        <v>27454.70427523461</v>
+        <v>2255.026648088016</v>
       </c>
       <c r="S2">
-        <v>0.2267953432466403</v>
+        <v>0.04922760572428468</v>
       </c>
       <c r="T2">
-        <v>0.2267953432466403</v>
+        <v>0.04922760572428468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>208.582405</v>
       </c>
       <c r="O3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q3">
-        <v>6877.154970629562</v>
+        <v>2496.521345368165</v>
       </c>
       <c r="R3">
-        <v>61894.39473566606</v>
+        <v>22468.69210831348</v>
       </c>
       <c r="S3">
-        <v>0.5112916299659714</v>
+        <v>0.4904952751605939</v>
       </c>
       <c r="T3">
-        <v>0.5112916299659714</v>
+        <v>0.4904952751605938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>30.186623</v>
       </c>
       <c r="O4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q4">
-        <v>995.2809030606903</v>
+        <v>361.303479380639</v>
       </c>
       <c r="R4">
-        <v>8957.528127546213</v>
+        <v>3251.731314425751</v>
       </c>
       <c r="S4">
-        <v>0.07399553992503963</v>
+        <v>0.0709858338940627</v>
       </c>
       <c r="T4">
-        <v>0.07399553992503963</v>
+        <v>0.0709858338940627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N5">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O5">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P5">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q5">
-        <v>525.788598590133</v>
+        <v>118.9651071160249</v>
       </c>
       <c r="R5">
-        <v>4732.097387311197</v>
+        <v>1070.685964044224</v>
       </c>
       <c r="S5">
-        <v>0.03909048301787259</v>
+        <v>0.02337325216852049</v>
       </c>
       <c r="T5">
-        <v>0.03909048301787259</v>
+        <v>0.02337325216852049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>208.582405</v>
       </c>
       <c r="O6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q6">
         <v>1185.347572583616</v>
@@ -818,10 +818,10 @@
         <v>10668.12815325254</v>
       </c>
       <c r="S6">
-        <v>0.08812631023305319</v>
+        <v>0.2328870068962306</v>
       </c>
       <c r="T6">
-        <v>0.08812631023305319</v>
+        <v>0.2328870068962305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>30.186623</v>
       </c>
       <c r="O7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q7">
         <v>171.5467817026405</v>
@@ -880,10 +880,10 @@
         <v>1543.921035323764</v>
       </c>
       <c r="S7">
-        <v>0.01275388354730217</v>
+        <v>0.03370405226066366</v>
       </c>
       <c r="T7">
-        <v>0.01275388354730217</v>
+        <v>0.03370405226066366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N8">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O8">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P8">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q8">
-        <v>180.1083387402787</v>
+        <v>40.75137397079467</v>
       </c>
       <c r="R8">
-        <v>1620.975048662508</v>
+        <v>366.762365737152</v>
       </c>
       <c r="S8">
-        <v>0.01339040438644504</v>
+        <v>0.008006483271637915</v>
       </c>
       <c r="T8">
-        <v>0.01339040438644504</v>
+        <v>0.008006483271637915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>208.582405</v>
       </c>
       <c r="O9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q9">
         <v>406.0395807370467</v>
@@ -1004,10 +1004,10 @@
         <v>3654.35622663342</v>
       </c>
       <c r="S9">
-        <v>0.0301875761055795</v>
+        <v>0.07977520250296097</v>
       </c>
       <c r="T9">
-        <v>0.0301875761055795</v>
+        <v>0.07977520250296097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>30.186623</v>
       </c>
       <c r="O10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q10">
-        <v>58.76317202684134</v>
+        <v>58.76317202684135</v>
       </c>
       <c r="R10">
         <v>528.8685482415721</v>
       </c>
       <c r="S10">
-        <v>0.004368829572096155</v>
+        <v>0.0115452881210452</v>
       </c>
       <c r="T10">
-        <v>0.004368829572096154</v>
+        <v>0.0115452881210452</v>
       </c>
     </row>
   </sheetData>
